--- a/test_data/cai/生产冒烟测试.xlsx
+++ b/test_data/cai/生产冒烟测试.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-2620" yWindow="-18520" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
     <sheet name="创建帐套" sheetId="2" r:id="rId2"/>
-    <sheet name="创建帐户" sheetId="12" r:id="rId3"/>
-    <sheet name="记收入" sheetId="3" r:id="rId4"/>
-    <sheet name="记支出" sheetId="4" r:id="rId5"/>
-    <sheet name="记互转" sheetId="5" r:id="rId6"/>
-    <sheet name="记收票" sheetId="6" r:id="rId7"/>
-    <sheet name="记开票" sheetId="7" r:id="rId8"/>
-    <sheet name="添加员工" sheetId="8" r:id="rId9"/>
-    <sheet name="生成工资表" sheetId="9" r:id="rId10"/>
-    <sheet name="生成劳务表" sheetId="10" r:id="rId11"/>
-    <sheet name="工作表10" sheetId="11" r:id="rId12"/>
+    <sheet name="创建帐套方式" sheetId="13" r:id="rId3"/>
+    <sheet name="创建帐户" sheetId="12" r:id="rId4"/>
+    <sheet name="记收入" sheetId="3" r:id="rId5"/>
+    <sheet name="记支出" sheetId="4" r:id="rId6"/>
+    <sheet name="记互转" sheetId="5" r:id="rId7"/>
+    <sheet name="记收票" sheetId="6" r:id="rId8"/>
+    <sheet name="记开票" sheetId="7" r:id="rId9"/>
+    <sheet name="添加员工" sheetId="8" r:id="rId10"/>
+    <sheet name="生成工资表" sheetId="9" r:id="rId11"/>
+    <sheet name="生成劳务表" sheetId="10" r:id="rId12"/>
+    <sheet name="工作表10" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="216">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -1403,58 +1404,172 @@
     <t>否</t>
   </si>
   <si>
-    <t>帐套名称0</t>
-    <rPh sb="0" eb="1">
+    <t>冒烟测试帐套</t>
+    <rPh sb="0" eb="1">
+      <t>mao yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>zhang tao</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <rPh sb="0" eb="1">
+      <t>huan jing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qq123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐套名称</t>
+    <rPh sb="0" eb="1">
+      <t>zhang tao</t>
+    </rPh>
     <rPh sb="2" eb="3">
       <t>mign c</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法定个代表人1</t>
-    <rPh sb="0" eb="1">
-      <t>fa din</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>g dai biao r</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本2</t>
+    <t>北京有序测试帐套</t>
+    <rPh sb="0" eb="1">
+      <t>bei jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang tao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐套编号0</t>
+    <rPh sb="0" eb="1">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐套名称1</t>
+    <rPh sb="0" eb="1">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计制度2</t>
+    <rPh sb="0" eb="1">
+      <t>kuai ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013小企业会计准则</t>
+  </si>
+  <si>
+    <t>公司性质3</t>
+    <rPh sb="0" eb="1">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代表9</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金10</t>
     <rPh sb="0" eb="1">
       <t>zhu ce</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>zi ben</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省3</t>
-    <rPh sb="0" eb="1">
-      <t>sheng fen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市4</t>
-    <rPh sb="0" eb="1">
-      <t>shi qu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区5</t>
-    <rPh sb="0" eb="1">
-      <t>qu yu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期－年6</t>
+      <t>zi jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号11</t>
+    <rPh sb="0" eb="1">
+      <t>shui hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业12</t>
+    <rPh sb="0" eb="1">
+      <t>hang ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用帐套日期／月份（一月、二月..）5</t>
+    <rPh sb="0" eb="1">
+      <t>qi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi yue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期／年（2018…)6</t>
     <rPh sb="0" eb="1">
       <t>cheng li</t>
     </rPh>
@@ -1467,17 +1582,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成立日期－月7</t>
-    <rPh sb="0" eb="1">
-      <t>cheng li ri q</t>
+    <t>成立日期／月（一月，二月…）7</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>yue</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期－日8</t>
+    <rPh sb="7" eb="8">
+      <t>yi yue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>er yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期／日（1，2…）8</t>
     <rPh sb="0" eb="1">
       <t>cheng li</t>
     </rPh>
@@ -1490,31 +1614,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>税号9</t>
-    <rPh sb="0" eb="1">
-      <t>shui hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业10</t>
-    <rPh sb="0" eb="1">
-      <t>hang ye</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐套性质11</t>
-    <rPh sb="0" eb="1">
-      <t>zhang tao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xing zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用帐套日期（一月）12</t>
+    <t>小规模纳税人</t>
+  </si>
+  <si>
+    <t>一般纳税人</t>
+  </si>
+  <si>
+    <t>启用帐套日期／年（2018..)4</t>
     <rPh sb="0" eb="1">
       <t>qi yong</t>
     </rPh>
@@ -1525,92 +1631,97 @@
       <t>ri qi</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>yi yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试场景13</t>
-    <rPh sb="0" eb="1">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chang j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果14</t>
-    <rPh sb="0" eb="1">
-      <t>jie guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒烟测试帐套</t>
-    <rPh sb="0" eb="1">
-      <t>mao yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住所／省份13</t>
+    <rPh sb="0" eb="1">
+      <t>zhu suo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住所／市14</t>
+    <rPh sb="0" eb="1">
+      <t>zhu suo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住所／区15</t>
+    <rPh sb="0" eb="1">
+      <t>zhu s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐套信息保存／取消16</t>
+    <rPh sb="0" eb="1">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qu x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建保存／取消17</t>
+    <rPh sb="0" eb="1">
+      <t>chuang j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注18</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月</t>
+    <rPh sb="0" eb="1">
+      <t>wu yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建帐套测试</t>
+    <rPh sb="0" eb="1">
+      <t>chaung j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ce s</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang tao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <rPh sb="0" eb="1">
-      <t>huan jing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1qazxsw2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qq123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄彩艳</t>
-    <rPh sb="0" eb="1">
-      <t>huang cai yan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性质</t>
-    <rPh sb="0" eb="1">
-      <t>xing zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小规模</t>
-    <rPh sb="0" eb="1">
-      <t>xiao gui mo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般纳税人</t>
-    <rPh sb="0" eb="1">
-      <t>yi ban na shui r</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1620,16 +1731,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1700,16 +1812,8 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1731,6 +1835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,22 +1871,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1798,19 +1908,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3 3" xfId="2"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2112,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2137,14 +2250,14 @@
         <v>13683139989</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,14 +2265,14 @@
         <v>18612198503</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2170,13 +2283,451 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="17" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>IF(B2&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f>IF(B2&lt;&gt;"","是","")</f>
+        <v>是</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25">
+        <v>40179</v>
+      </c>
+      <c r="T2" s="21">
+        <v>12</v>
+      </c>
+      <c r="U2" s="21">
+        <v>344</v>
+      </c>
+      <c r="V2" s="21">
+        <v>66</v>
+      </c>
+      <c r="W2" s="21">
+        <v>56</v>
+      </c>
+      <c r="X2" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25">
+        <v>40182</v>
+      </c>
+      <c r="T3" s="21">
+        <v>15</v>
+      </c>
+      <c r="U3" s="21">
+        <v>347</v>
+      </c>
+      <c r="V3" s="21">
+        <v>69</v>
+      </c>
+      <c r="W3" s="21">
+        <v>11</v>
+      </c>
+      <c r="X3" s="21">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21">
+        <v>126</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f>IF(B4&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>IF(B4&lt;&gt;"","是","")</f>
+        <v>是</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25">
+        <v>40183</v>
+      </c>
+      <c r="T4" s="21">
+        <v>16</v>
+      </c>
+      <c r="U4" s="21">
+        <v>348</v>
+      </c>
+      <c r="V4" s="21">
+        <v>70</v>
+      </c>
+      <c r="W4" s="21">
+        <v>12</v>
+      </c>
+      <c r="X4" s="21">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21">
+        <v>127</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>58</v>
+      </c>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>IF(B5&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25">
+        <v>40184</v>
+      </c>
+      <c r="T5" s="21">
+        <v>17</v>
+      </c>
+      <c r="U5" s="21">
+        <v>349</v>
+      </c>
+      <c r="V5" s="21">
+        <v>71</v>
+      </c>
+      <c r="W5" s="21">
+        <v>13</v>
+      </c>
+      <c r="X5" s="21">
+        <v>104</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21">
+        <v>128</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>59</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
+      <formula1>"管理部门,销售部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>"中国,非中国"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>"正常,离职"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"农业,非农业"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2207,103 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2316,7 +2771,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="30" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2018</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
+      <formula1>"2013小企业会计准则,村集体经济组织会计制度"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D33">
+      <formula1>"小规模纳税人,一般纳税人"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q30">
+      <formula1>"msg_save,msg_cancel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R29">
+      <formula1>"create_save,create_cancel"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2474,7 +3107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2644,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -3006,7 +3639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3189,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -3413,455 +4046,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="17" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="22" t="str">
-        <f>IF(B2&lt;&gt;"","中国","")</f>
-        <v>中国</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="22" t="str">
-        <f>IF(B2&lt;&gt;"","是","")</f>
-        <v>是</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25">
-        <v>40179</v>
-      </c>
-      <c r="T2" s="21">
-        <v>12</v>
-      </c>
-      <c r="U2" s="21">
-        <v>344</v>
-      </c>
-      <c r="V2" s="21">
-        <v>66</v>
-      </c>
-      <c r="W2" s="21">
-        <v>56</v>
-      </c>
-      <c r="X2" s="21">
-        <v>99</v>
-      </c>
-      <c r="Y2" s="21">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="21">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="21">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="21">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25">
-        <v>40182</v>
-      </c>
-      <c r="T3" s="21">
-        <v>15</v>
-      </c>
-      <c r="U3" s="21">
-        <v>347</v>
-      </c>
-      <c r="V3" s="21">
-        <v>69</v>
-      </c>
-      <c r="W3" s="21">
-        <v>11</v>
-      </c>
-      <c r="X3" s="21">
-        <v>102</v>
-      </c>
-      <c r="Y3" s="21">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21">
-        <v>126</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>57</v>
-      </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="22" t="str">
-        <f>IF(B4&lt;&gt;"","中国","")</f>
-        <v>中国</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="22" t="str">
-        <f>IF(B4&lt;&gt;"","是","")</f>
-        <v>是</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="25">
-        <v>40183</v>
-      </c>
-      <c r="T4" s="21">
-        <v>16</v>
-      </c>
-      <c r="U4" s="21">
-        <v>348</v>
-      </c>
-      <c r="V4" s="21">
-        <v>70</v>
-      </c>
-      <c r="W4" s="21">
-        <v>12</v>
-      </c>
-      <c r="X4" s="21">
-        <v>103</v>
-      </c>
-      <c r="Y4" s="21">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21">
-        <v>127</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="22" t="str">
-        <f>IF(B5&lt;&gt;"","中国","")</f>
-        <v>中国</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="25">
-        <v>40184</v>
-      </c>
-      <c r="T5" s="21">
-        <v>17</v>
-      </c>
-      <c r="U5" s="21">
-        <v>349</v>
-      </c>
-      <c r="V5" s="21">
-        <v>71</v>
-      </c>
-      <c r="W5" s="21">
-        <v>13</v>
-      </c>
-      <c r="X5" s="21">
-        <v>104</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21">
-        <v>128</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>59</v>
-      </c>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
-      <formula1>"管理部门,销售部门"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
-      <formula1>"中国,非中国"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
-      <formula1>"正常,离职"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"农业,非农业"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>